--- a/Code/Results/Cases/Case_8_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.69101422170719</v>
+        <v>13.65251493889913</v>
       </c>
       <c r="C2">
-        <v>6.913657366133134</v>
+        <v>7.2469679835584</v>
       </c>
       <c r="D2">
-        <v>5.317925882483475</v>
+        <v>5.61032677023463</v>
       </c>
       <c r="E2">
-        <v>7.533098409274007</v>
+        <v>7.720072639953811</v>
       </c>
       <c r="F2">
-        <v>24.80998315848375</v>
+        <v>23.27622285010596</v>
       </c>
       <c r="G2">
-        <v>2.128990007824038</v>
+        <v>7.590925337532189</v>
       </c>
       <c r="H2">
-        <v>3.410601078379183</v>
+        <v>3.016567321780971</v>
       </c>
       <c r="I2">
-        <v>4.112992608505758</v>
+        <v>3.684059794682642</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.07051352849428</v>
+        <v>16.74715644500885</v>
       </c>
       <c r="L2">
-        <v>5.813582016725414</v>
+        <v>13.22024408628768</v>
       </c>
       <c r="M2">
-        <v>11.29970601877618</v>
+        <v>11.52778294842637</v>
       </c>
       <c r="N2">
-        <v>6.786126442832165</v>
+        <v>5.826238553107369</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.59245155246439</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.053323441210694</v>
       </c>
       <c r="Q2">
-        <v>18.72850241945575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>17.36273777449924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.82533934678718</v>
+        <v>12.78022021539088</v>
       </c>
       <c r="C3">
-        <v>6.672716638622369</v>
+        <v>6.954922992143002</v>
       </c>
       <c r="D3">
-        <v>5.100579490963982</v>
+        <v>5.402700700080955</v>
       </c>
       <c r="E3">
-        <v>7.368892943682647</v>
+        <v>7.585072163679802</v>
       </c>
       <c r="F3">
-        <v>24.63549300892873</v>
+        <v>23.1153666608943</v>
       </c>
       <c r="G3">
-        <v>2.132553139538644</v>
+        <v>8.058584525676572</v>
       </c>
       <c r="H3">
-        <v>3.606762991713882</v>
+        <v>3.18912235771381</v>
       </c>
       <c r="I3">
-        <v>4.265954373170482</v>
+        <v>3.810606108981016</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.14086796056598</v>
+        <v>16.82889112475651</v>
       </c>
       <c r="L3">
-        <v>5.772431120558137</v>
+        <v>13.35244420342006</v>
       </c>
       <c r="M3">
-        <v>10.64595508944201</v>
+        <v>11.55571241820997</v>
       </c>
       <c r="N3">
-        <v>6.583088640993655</v>
+        <v>5.794995770620435</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.94016491241986</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.845679502449915</v>
       </c>
       <c r="Q3">
-        <v>18.73722315156747</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>17.3701243514607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.26253978121232</v>
+        <v>12.21119256968986</v>
       </c>
       <c r="C4">
-        <v>6.521264589187854</v>
+        <v>6.771828551558295</v>
       </c>
       <c r="D4">
-        <v>4.963400071953701</v>
+        <v>5.272625072520933</v>
       </c>
       <c r="E4">
-        <v>7.265468328261838</v>
+        <v>7.50037618422052</v>
       </c>
       <c r="F4">
-        <v>24.53453397685209</v>
+        <v>23.02009818245879</v>
       </c>
       <c r="G4">
-        <v>2.134817661633992</v>
+        <v>8.355923704088628</v>
       </c>
       <c r="H4">
-        <v>3.731741816570967</v>
+        <v>3.299140177418778</v>
       </c>
       <c r="I4">
-        <v>4.363973517834701</v>
+        <v>3.892065054203245</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.18748955816168</v>
+        <v>16.8808351614082</v>
       </c>
       <c r="L4">
-        <v>5.746142835433313</v>
+        <v>13.4344571539939</v>
       </c>
       <c r="M4">
-        <v>10.22329433975218</v>
+        <v>11.58749226146448</v>
       </c>
       <c r="N4">
-        <v>6.456126042810054</v>
+        <v>5.77494153169213</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.51919697548211</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.716205937618137</v>
       </c>
       <c r="Q4">
-        <v>18.74787012927997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>17.37774182747746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.02340087532551</v>
+        <v>11.96886365439701</v>
       </c>
       <c r="C5">
-        <v>6.463519848038649</v>
+        <v>6.701567539319794</v>
       </c>
       <c r="D5">
-        <v>4.907844113376483</v>
+        <v>5.220199617913584</v>
       </c>
       <c r="E5">
-        <v>7.221670396713834</v>
+        <v>7.464496207884686</v>
       </c>
       <c r="F5">
-        <v>24.48665350858065</v>
+        <v>22.97392589269402</v>
       </c>
       <c r="G5">
-        <v>2.13576623585728</v>
+        <v>8.480524493318546</v>
       </c>
       <c r="H5">
-        <v>3.784142800921147</v>
+        <v>3.345293518784986</v>
       </c>
       <c r="I5">
-        <v>4.407306315562716</v>
+        <v>3.929021987766595</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.2015284318329</v>
+        <v>16.89684593386469</v>
       </c>
       <c r="L5">
-        <v>5.734565191673542</v>
+        <v>13.46269641951548</v>
       </c>
       <c r="M5">
-        <v>10.0473385124258</v>
+        <v>11.60104736951254</v>
       </c>
       <c r="N5">
-        <v>6.405411178912058</v>
+        <v>5.76599840984959</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.34409184810645</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.66448813677306</v>
       </c>
       <c r="Q5">
-        <v>18.74765147985291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>17.37578138413798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.98081087762277</v>
+        <v>11.92563986718939</v>
       </c>
       <c r="C6">
-        <v>6.459815623487699</v>
+        <v>6.696275633287908</v>
       </c>
       <c r="D6">
-        <v>4.900054788906857</v>
+        <v>5.212876968088923</v>
       </c>
       <c r="E6">
-        <v>7.213105591808844</v>
+        <v>7.457370073045039</v>
       </c>
       <c r="F6">
-        <v>24.46865976318827</v>
+        <v>22.95625291608074</v>
       </c>
       <c r="G6">
-        <v>2.135932487817565</v>
+        <v>8.502392273320375</v>
       </c>
       <c r="H6">
-        <v>3.793300298471543</v>
+        <v>3.353368710830567</v>
       </c>
       <c r="I6">
-        <v>4.417561295934204</v>
+        <v>3.938822759531456</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.19682016048303</v>
+        <v>16.89270587379409</v>
       </c>
       <c r="L6">
-        <v>5.731885427098693</v>
+        <v>13.46081742514087</v>
       </c>
       <c r="M6">
-        <v>10.01972621992762</v>
+        <v>11.59978395714832</v>
       </c>
       <c r="N6">
-        <v>6.398853394157846</v>
+        <v>5.763827563065841</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.31655278397697</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.657686809907494</v>
       </c>
       <c r="Q6">
-        <v>18.74053401891847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>17.36839243581004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.252906462524</v>
+        <v>12.20460492790285</v>
       </c>
       <c r="C7">
-        <v>6.53654335651369</v>
+        <v>6.776338263664934</v>
       </c>
       <c r="D7">
-        <v>4.96665176833348</v>
+        <v>5.28901049221601</v>
       </c>
       <c r="E7">
-        <v>7.261487181327615</v>
+        <v>7.500150180730819</v>
       </c>
       <c r="F7">
-        <v>24.50631258972615</v>
+        <v>22.9461461238795</v>
       </c>
       <c r="G7">
-        <v>2.134850628107514</v>
+        <v>8.405913448146977</v>
       </c>
       <c r="H7">
-        <v>3.733478805057123</v>
+        <v>3.302054695467447</v>
       </c>
       <c r="I7">
-        <v>4.372476668879004</v>
+        <v>3.903332759581098</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.16834851139395</v>
+        <v>16.83854753807677</v>
       </c>
       <c r="L7">
-        <v>5.743982232643723</v>
+        <v>13.39496620703522</v>
       </c>
       <c r="M7">
-        <v>10.22609522498673</v>
+        <v>11.56319021235316</v>
       </c>
       <c r="N7">
-        <v>6.460561726514684</v>
+        <v>5.771847477234542</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.51771145254273</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.720103203781316</v>
       </c>
       <c r="Q7">
-        <v>18.72836084523068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>17.32396682858471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.39111829661</v>
+        <v>13.3606059198444</v>
       </c>
       <c r="C8">
-        <v>6.851920852883205</v>
+        <v>7.131151831690404</v>
       </c>
       <c r="D8">
-        <v>5.248817023361683</v>
+        <v>5.58640663122762</v>
       </c>
       <c r="E8">
-        <v>7.472707257810604</v>
+        <v>7.681012517783002</v>
       </c>
       <c r="F8">
-        <v>24.71262669176589</v>
+        <v>23.03518848953425</v>
       </c>
       <c r="G8">
-        <v>2.130228000602937</v>
+        <v>7.968675390042825</v>
       </c>
       <c r="H8">
-        <v>3.478588813013088</v>
+        <v>3.080604933945512</v>
       </c>
       <c r="I8">
-        <v>4.17489645918695</v>
+        <v>3.742843004704838</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.06866992471502</v>
+        <v>16.67321766305372</v>
       </c>
       <c r="L8">
-        <v>5.797039737168863</v>
+        <v>13.17695384630414</v>
       </c>
       <c r="M8">
-        <v>11.08512720451069</v>
+        <v>11.46823621204385</v>
       </c>
       <c r="N8">
-        <v>6.723160231307869</v>
+        <v>5.809710474644037</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.36538696642145</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.987468757457223</v>
       </c>
       <c r="Q8">
-        <v>18.70483670368517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>17.22733251015244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.38437759441658</v>
+        <v>15.36156839390238</v>
       </c>
       <c r="C9">
-        <v>7.414146872182578</v>
+        <v>7.808331227039813</v>
       </c>
       <c r="D9">
-        <v>5.763316459480449</v>
+        <v>6.090361319394113</v>
       </c>
       <c r="E9">
-        <v>7.870859433467501</v>
+        <v>8.013247922443062</v>
       </c>
       <c r="F9">
-        <v>25.21461601589842</v>
+        <v>23.45307945531528</v>
       </c>
       <c r="G9">
-        <v>2.12172596787407</v>
+        <v>6.91686099571448</v>
       </c>
       <c r="H9">
-        <v>3.012379301734956</v>
+        <v>2.671707845362156</v>
       </c>
       <c r="I9">
-        <v>3.806595658566535</v>
+        <v>3.437648906554396</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.93543681544193</v>
+        <v>16.48218212981616</v>
       </c>
       <c r="L9">
-        <v>5.896452627116003</v>
+        <v>12.86497507284535</v>
       </c>
       <c r="M9">
-        <v>12.5909390105895</v>
+        <v>11.47033558595058</v>
       </c>
       <c r="N9">
-        <v>7.208993904860551</v>
+        <v>5.88436024000239</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.86935683654809</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.486265193461052</v>
       </c>
       <c r="Q9">
-        <v>18.7366407954944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>17.22186129559429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.70710082569103</v>
+        <v>16.67513610705632</v>
       </c>
       <c r="C10">
-        <v>7.841940822789064</v>
+        <v>8.252722513184684</v>
       </c>
       <c r="D10">
-        <v>6.087482056909289</v>
+        <v>6.47576513547603</v>
       </c>
       <c r="E10">
-        <v>8.06189570489677</v>
+        <v>8.182906980664631</v>
       </c>
       <c r="F10">
-        <v>25.45673323155702</v>
+        <v>23.3878340578143</v>
       </c>
       <c r="G10">
-        <v>2.115939015219132</v>
+        <v>7.076161498909668</v>
       </c>
       <c r="H10">
-        <v>2.716545907052</v>
+        <v>2.422371662185847</v>
       </c>
       <c r="I10">
-        <v>3.564589448248847</v>
+        <v>3.246486640800099</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.77030451086898</v>
+        <v>16.1511610899264</v>
       </c>
       <c r="L10">
-        <v>5.939959163442454</v>
+        <v>12.49525774245682</v>
       </c>
       <c r="M10">
-        <v>13.60061209204925</v>
+        <v>11.3825517899204</v>
       </c>
       <c r="N10">
-        <v>7.480145853204377</v>
+        <v>5.908413651543305</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.85932662621751</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.763802949755483</v>
       </c>
       <c r="Q10">
-        <v>18.69217264470213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>16.96160233523183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.17617764370858</v>
+        <v>17.1833399456731</v>
       </c>
       <c r="C11">
-        <v>8.291319718371362</v>
+        <v>8.565755733474335</v>
       </c>
       <c r="D11">
-        <v>5.95051117261677</v>
+        <v>6.468332296045527</v>
       </c>
       <c r="E11">
-        <v>7.452911862026163</v>
+        <v>7.623184852296262</v>
       </c>
       <c r="F11">
-        <v>24.29643042928909</v>
+        <v>21.80934377584781</v>
       </c>
       <c r="G11">
-        <v>2.114254616815825</v>
+        <v>9.826170408584353</v>
       </c>
       <c r="H11">
-        <v>3.447978478289297</v>
+        <v>3.238703410813194</v>
       </c>
       <c r="I11">
-        <v>3.513395979362725</v>
+        <v>3.221868776325734</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.02645487912094</v>
+        <v>15.26820078848655</v>
       </c>
       <c r="L11">
-        <v>5.795486025891599</v>
+        <v>11.82598580220297</v>
       </c>
       <c r="M11">
-        <v>14.10063849430751</v>
+        <v>10.74081119893708</v>
       </c>
       <c r="N11">
-        <v>6.987344355022364</v>
+        <v>5.77783540650018</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.30417729916404</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.250711943542917</v>
       </c>
       <c r="Q11">
-        <v>17.90187293255268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>15.87551412274618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.30926794227888</v>
+        <v>17.34505019994713</v>
       </c>
       <c r="C12">
-        <v>8.57495984823721</v>
+        <v>8.756359582253374</v>
       </c>
       <c r="D12">
-        <v>5.758622199668062</v>
+        <v>6.331513153943116</v>
       </c>
       <c r="E12">
-        <v>6.974281107246243</v>
+        <v>7.169551237201229</v>
       </c>
       <c r="F12">
-        <v>23.30447364022921</v>
+        <v>20.70109736841806</v>
       </c>
       <c r="G12">
-        <v>2.113930974669924</v>
+        <v>11.41954652118085</v>
       </c>
       <c r="H12">
-        <v>4.637869072123823</v>
+        <v>4.486213308780196</v>
       </c>
       <c r="I12">
-        <v>3.50272712645218</v>
+        <v>3.216760653517888</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.48154013740427</v>
+        <v>14.7416219118536</v>
       </c>
       <c r="L12">
-        <v>5.729097326867107</v>
+        <v>11.46150040291526</v>
       </c>
       <c r="M12">
-        <v>14.31277814195776</v>
+        <v>10.31866902843698</v>
       </c>
       <c r="N12">
-        <v>6.518031423335226</v>
+        <v>5.730230171589917</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.48457742786519</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.764026401400508</v>
       </c>
       <c r="Q12">
-        <v>17.27725837323142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>15.18382819818989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.18877635145515</v>
+        <v>17.24091582225778</v>
       </c>
       <c r="C13">
-        <v>8.773298653070178</v>
+        <v>8.919586809789118</v>
       </c>
       <c r="D13">
-        <v>5.51355289905642</v>
+        <v>6.060351519840879</v>
       </c>
       <c r="E13">
-        <v>6.573913556176793</v>
+        <v>6.776506600350868</v>
       </c>
       <c r="F13">
-        <v>22.33961631792122</v>
+        <v>19.92356738547321</v>
       </c>
       <c r="G13">
-        <v>2.114667349867323</v>
+        <v>11.09944145197836</v>
       </c>
       <c r="H13">
-        <v>5.957888660683315</v>
+        <v>5.834943320072719</v>
       </c>
       <c r="I13">
-        <v>3.535611222455204</v>
+        <v>3.241479203978532</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.03170228314311</v>
+        <v>14.44764109133824</v>
       </c>
       <c r="L13">
-        <v>5.715727872031998</v>
+        <v>11.27279134032479</v>
       </c>
       <c r="M13">
-        <v>14.32882026445874</v>
+        <v>10.0549254835208</v>
       </c>
       <c r="N13">
-        <v>6.04283174927192</v>
+        <v>5.738090540384603</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.49085321186068</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.273035848450906</v>
       </c>
       <c r="Q13">
-        <v>16.71480181870657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>14.77303358414414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.98649298461059</v>
+        <v>17.04496645134255</v>
       </c>
       <c r="C14">
-        <v>8.881247571770471</v>
+        <v>9.029063062349117</v>
       </c>
       <c r="D14">
-        <v>5.316458282858174</v>
+        <v>5.810426345707113</v>
       </c>
       <c r="E14">
-        <v>6.349832963228516</v>
+        <v>6.554091266952359</v>
       </c>
       <c r="F14">
-        <v>21.67594544670975</v>
+        <v>19.50906151870836</v>
       </c>
       <c r="G14">
-        <v>2.115664156880541</v>
+        <v>10.05602517174904</v>
       </c>
       <c r="H14">
-        <v>6.920491637838292</v>
+        <v>6.808843112791964</v>
       </c>
       <c r="I14">
-        <v>3.580782562550341</v>
+        <v>3.275585172204265</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.763484875058</v>
+        <v>14.33130808436399</v>
       </c>
       <c r="L14">
-        <v>5.738033455990124</v>
+        <v>11.20193580481071</v>
       </c>
       <c r="M14">
-        <v>14.25292894243171</v>
+        <v>9.936081241319723</v>
       </c>
       <c r="N14">
-        <v>5.712814680885571</v>
+        <v>5.774021943355151</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.41744248574343</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.932856503287674</v>
       </c>
       <c r="Q14">
-        <v>16.35040263691664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>14.59492998248765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.88000416651451</v>
+        <v>16.93794323897116</v>
       </c>
       <c r="C15">
-        <v>8.894656431617637</v>
+        <v>9.055040040541041</v>
       </c>
       <c r="D15">
-        <v>5.258357399674199</v>
+        <v>5.724956802619609</v>
       </c>
       <c r="E15">
-        <v>6.302008626580265</v>
+        <v>6.506965197442087</v>
       </c>
       <c r="F15">
-        <v>21.51292674667916</v>
+        <v>19.45544990135999</v>
       </c>
       <c r="G15">
-        <v>2.116152035095428</v>
+        <v>9.479905928745506</v>
       </c>
       <c r="H15">
-        <v>7.148307401047778</v>
+        <v>7.037336202659357</v>
       </c>
       <c r="I15">
-        <v>3.605320537187732</v>
+        <v>3.295394726089917</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.71159073197831</v>
+        <v>14.33424995908086</v>
       </c>
       <c r="L15">
-        <v>5.746192574336104</v>
+        <v>11.2052799038192</v>
       </c>
       <c r="M15">
-        <v>14.19362806344266</v>
+        <v>9.930099652011478</v>
       </c>
       <c r="N15">
-        <v>5.631325400303366</v>
+        <v>5.785539020159707</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.36288456881692</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.849234353323798</v>
       </c>
       <c r="Q15">
-        <v>16.2694002122613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>14.59232870251324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.35519056965602</v>
+        <v>16.39004547823776</v>
       </c>
       <c r="C16">
-        <v>8.694204642625875</v>
+        <v>8.956457339444569</v>
       </c>
       <c r="D16">
-        <v>5.161918071792575</v>
+        <v>5.510174371068778</v>
       </c>
       <c r="E16">
-        <v>6.292258210212241</v>
+        <v>6.501216495258126</v>
       </c>
       <c r="F16">
-        <v>21.58366610408632</v>
+        <v>19.9321557525794</v>
       </c>
       <c r="G16">
-        <v>2.118488416682899</v>
+        <v>7.238269215478783</v>
       </c>
       <c r="H16">
-        <v>6.977539743838557</v>
+        <v>6.848412994947621</v>
       </c>
       <c r="I16">
-        <v>3.707145699418418</v>
+        <v>3.371349703780582</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.86844721309499</v>
+        <v>14.64517863986138</v>
       </c>
       <c r="L16">
-        <v>5.725402199521855</v>
+        <v>11.42129634512254</v>
       </c>
       <c r="M16">
-        <v>13.78192398257648</v>
+        <v>10.15306325110905</v>
       </c>
       <c r="N16">
-        <v>5.601703186299399</v>
+        <v>5.768627239545093</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.98733490503917</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.822838536611351</v>
       </c>
       <c r="Q16">
-        <v>16.39375890766483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>14.99491179378051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.05784328037313</v>
+        <v>16.07364337836995</v>
       </c>
       <c r="C17">
-        <v>8.478227395158472</v>
+        <v>8.799832843002116</v>
       </c>
       <c r="D17">
-        <v>5.195947563217397</v>
+        <v>5.497629354425879</v>
       </c>
       <c r="E17">
-        <v>6.393075492177948</v>
+        <v>6.599504015520054</v>
       </c>
       <c r="F17">
-        <v>21.98833147907466</v>
+        <v>20.47788512384078</v>
       </c>
       <c r="G17">
-        <v>2.119756709898482</v>
+        <v>6.705628940701615</v>
       </c>
       <c r="H17">
-        <v>6.310005962465384</v>
+        <v>6.157505029233189</v>
       </c>
       <c r="I17">
-        <v>3.761955855573372</v>
+        <v>3.413131637404985</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.12590144851104</v>
+        <v>14.93896701974311</v>
       </c>
       <c r="L17">
-        <v>5.692523099171184</v>
+        <v>11.63631220659194</v>
       </c>
       <c r="M17">
-        <v>13.50159393881439</v>
+        <v>10.36924563216556</v>
       </c>
       <c r="N17">
-        <v>5.754186669087128</v>
+        <v>5.733434585852288</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.72929775838378</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.982627842824061</v>
       </c>
       <c r="Q17">
-        <v>16.67933772618883</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>15.3740290491299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.92810220867806</v>
+        <v>15.92784107543592</v>
       </c>
       <c r="C18">
-        <v>8.216717792666179</v>
+        <v>8.587602857592374</v>
       </c>
       <c r="D18">
-        <v>5.343365734827131</v>
+        <v>5.62977168397998</v>
       </c>
       <c r="E18">
-        <v>6.659299005713039</v>
+        <v>6.849672940381817</v>
       </c>
       <c r="F18">
-        <v>22.75348606457094</v>
+        <v>21.25569545348997</v>
       </c>
       <c r="G18">
-        <v>2.120183678281572</v>
+        <v>6.57344266657781</v>
       </c>
       <c r="H18">
-        <v>5.189329262982231</v>
+        <v>4.999321222694761</v>
       </c>
       <c r="I18">
-        <v>3.771826701120363</v>
+        <v>3.416725921561101</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.52683356428486</v>
+        <v>15.31037466253221</v>
       </c>
       <c r="L18">
-        <v>5.677239072652139</v>
+        <v>11.91521137431272</v>
       </c>
       <c r="M18">
-        <v>13.30505071707742</v>
+        <v>10.64948804201734</v>
       </c>
       <c r="N18">
-        <v>6.092080507590817</v>
+        <v>5.7089821962688</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.5516814562892</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.33277563979135</v>
       </c>
       <c r="Q18">
-        <v>17.157081965855</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>15.85522553188519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.93423750928358</v>
+        <v>15.92055571665135</v>
       </c>
       <c r="C19">
-        <v>7.98165586228062</v>
+        <v>8.396652389804499</v>
       </c>
       <c r="D19">
-        <v>5.574717990240233</v>
+        <v>5.861957636423721</v>
       </c>
       <c r="E19">
-        <v>7.10860221650647</v>
+        <v>7.27096758734208</v>
       </c>
       <c r="F19">
-        <v>23.72462023231979</v>
+        <v>22.16642399015262</v>
       </c>
       <c r="G19">
-        <v>2.119873197953157</v>
+        <v>6.495692095394221</v>
       </c>
       <c r="H19">
-        <v>3.939769123720523</v>
+        <v>3.69204573831594</v>
       </c>
       <c r="I19">
-        <v>3.758747044476046</v>
+        <v>3.407012774017452</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.01039962143574</v>
+        <v>15.72444945250639</v>
       </c>
       <c r="L19">
-        <v>5.722869419224468</v>
+        <v>12.22820495985414</v>
       </c>
       <c r="M19">
-        <v>13.20252112086604</v>
+        <v>10.96711089417036</v>
       </c>
       <c r="N19">
-        <v>6.57794865967333</v>
+        <v>5.738248062220238</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.46595014248695</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.83440504511524</v>
       </c>
       <c r="Q19">
-        <v>17.73838737627401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>16.38881984869041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.35065924255563</v>
+        <v>16.31567931854256</v>
       </c>
       <c r="C20">
-        <v>7.777360260224116</v>
+        <v>8.225717990651598</v>
       </c>
       <c r="D20">
-        <v>6.012687508836244</v>
+        <v>6.34378949422618</v>
       </c>
       <c r="E20">
-        <v>7.999422046554088</v>
+        <v>8.115235150243267</v>
       </c>
       <c r="F20">
-        <v>25.30406550346155</v>
+        <v>23.47207414799088</v>
       </c>
       <c r="G20">
-        <v>2.117492819785855</v>
+        <v>6.481217168014672</v>
       </c>
       <c r="H20">
-        <v>2.795379656306456</v>
+        <v>2.484854226792887</v>
       </c>
       <c r="I20">
-        <v>3.653144647461938</v>
+        <v>3.324083539146959</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.75075074435146</v>
+        <v>16.26063047374951</v>
       </c>
       <c r="L20">
-        <v>5.92225054827572</v>
+        <v>12.6066143078097</v>
       </c>
       <c r="M20">
-        <v>13.35594027378366</v>
+        <v>11.42145268845557</v>
       </c>
       <c r="N20">
-        <v>7.420438343436977</v>
+        <v>5.899893363567514</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.63060471785365</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.702772176716512</v>
       </c>
       <c r="Q20">
-        <v>18.63960557493105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>17.08518762134729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.34511067519443</v>
+        <v>17.33725419791256</v>
       </c>
       <c r="C21">
-        <v>8.048185571692478</v>
+        <v>8.322524248277269</v>
       </c>
       <c r="D21">
-        <v>6.302216122848531</v>
+        <v>6.894436598032078</v>
       </c>
       <c r="E21">
-        <v>8.275584752673012</v>
+        <v>8.433994581642414</v>
       </c>
       <c r="F21">
-        <v>25.74049607509767</v>
+        <v>22.85590983175198</v>
       </c>
       <c r="G21">
-        <v>2.112977503057046</v>
+        <v>11.16170667393759</v>
       </c>
       <c r="H21">
-        <v>2.535378806386062</v>
+        <v>2.277615557465438</v>
       </c>
       <c r="I21">
-        <v>3.460584517487467</v>
+        <v>3.18669954155575</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.76084264036023</v>
+        <v>15.71158182691872</v>
       </c>
       <c r="L21">
-        <v>5.992308889686688</v>
+        <v>12.13010075848518</v>
       </c>
       <c r="M21">
-        <v>14.08362259178277</v>
+        <v>11.11859074797075</v>
       </c>
       <c r="N21">
-        <v>7.733097534034691</v>
+        <v>5.933323071027357</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.28967018252819</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.019436268889576</v>
       </c>
       <c r="Q21">
-        <v>18.76299050851929</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>16.42334883802957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.96611625597846</v>
+        <v>17.98014373295111</v>
       </c>
       <c r="C22">
-        <v>8.217542888176041</v>
+        <v>8.371475143920987</v>
       </c>
       <c r="D22">
-        <v>6.465757749775364</v>
+        <v>7.241522774581354</v>
       </c>
       <c r="E22">
-        <v>8.412987108476788</v>
+        <v>8.610200662159791</v>
       </c>
       <c r="F22">
-        <v>25.99023398358218</v>
+        <v>22.36812708182617</v>
       </c>
       <c r="G22">
-        <v>2.110118080437593</v>
+        <v>15.64080192119618</v>
       </c>
       <c r="H22">
-        <v>2.38020498515698</v>
+        <v>2.154897259118667</v>
       </c>
       <c r="I22">
-        <v>3.329775919736842</v>
+        <v>3.087187914616155</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.75664598602444</v>
+        <v>15.32207815783387</v>
       </c>
       <c r="L22">
-        <v>6.027336193169546</v>
+        <v>11.81880545703054</v>
       </c>
       <c r="M22">
-        <v>14.53841918489606</v>
+        <v>10.88814947567099</v>
       </c>
       <c r="N22">
-        <v>7.891042222538541</v>
+        <v>5.946211746031695</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.69834677363034</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.178951215616795</v>
       </c>
       <c r="Q22">
-        <v>18.8290405621824</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>15.94028934309424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.64317310300826</v>
+        <v>17.63880232701982</v>
       </c>
       <c r="C23">
-        <v>8.111053269918003</v>
+        <v>8.35250860907929</v>
       </c>
       <c r="D23">
-        <v>6.375178124676852</v>
+        <v>7.023546850983917</v>
       </c>
       <c r="E23">
-        <v>8.343341068910043</v>
+        <v>8.509782789313327</v>
       </c>
       <c r="F23">
-        <v>25.88640705761022</v>
+        <v>22.76485514639977</v>
       </c>
       <c r="G23">
-        <v>2.111620518026649</v>
+        <v>12.46071946973228</v>
       </c>
       <c r="H23">
-        <v>2.461775412341769</v>
+        <v>2.217543604002269</v>
       </c>
       <c r="I23">
-        <v>3.389034751838655</v>
+        <v>3.125903330499577</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.78058849056039</v>
+        <v>15.60208149399538</v>
       </c>
       <c r="L23">
-        <v>6.01077837402898</v>
+        <v>12.03089949710938</v>
       </c>
       <c r="M23">
-        <v>14.29281939316574</v>
+        <v>11.07327606863707</v>
       </c>
       <c r="N23">
-        <v>7.801951541988954</v>
+        <v>5.943152525826505</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.48480583472476</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.089795592278165</v>
       </c>
       <c r="Q23">
-        <v>18.8151653088381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>16.29823606854743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.35244208180132</v>
+        <v>16.31502620769935</v>
       </c>
       <c r="C24">
-        <v>7.725782593315234</v>
+        <v>8.175717400054843</v>
       </c>
       <c r="D24">
-        <v>6.028291493560244</v>
+        <v>6.358150780871387</v>
       </c>
       <c r="E24">
-        <v>8.068284859296227</v>
+        <v>8.180335273724475</v>
       </c>
       <c r="F24">
-        <v>25.45805395492675</v>
+        <v>23.62363106032885</v>
       </c>
       <c r="G24">
-        <v>2.117452817643825</v>
+        <v>6.453026209498032</v>
       </c>
       <c r="H24">
-        <v>2.779033353782856</v>
+        <v>2.467976112797057</v>
       </c>
       <c r="I24">
-        <v>3.636409135641499</v>
+        <v>3.303685376614654</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.84482533924465</v>
+        <v>16.34650121574098</v>
       </c>
       <c r="L24">
-        <v>5.943211085414259</v>
+        <v>12.67187683612582</v>
       </c>
       <c r="M24">
-        <v>13.33096510945956</v>
+        <v>11.48666531850526</v>
       </c>
       <c r="N24">
-        <v>7.465570682327341</v>
+        <v>5.918297809349921</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.60794168520111</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.749947972921413</v>
       </c>
       <c r="Q24">
-        <v>18.74066379235713</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>17.18361680915934</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.86205983638977</v>
+        <v>14.83461698757941</v>
       </c>
       <c r="C25">
-        <v>7.292236090556567</v>
+        <v>7.674245450653046</v>
       </c>
       <c r="D25">
-        <v>5.634288459634059</v>
+        <v>5.946034175904429</v>
       </c>
       <c r="E25">
-        <v>7.760011770496557</v>
+        <v>7.915302333367381</v>
       </c>
       <c r="F25">
-        <v>25.02566257227426</v>
+        <v>23.35282001423418</v>
       </c>
       <c r="G25">
-        <v>2.123995784075369</v>
+        <v>7.070674971923066</v>
       </c>
       <c r="H25">
-        <v>3.136428221615699</v>
+        <v>2.778752741087085</v>
       </c>
       <c r="I25">
-        <v>3.917051912559366</v>
+        <v>3.532801118884457</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.93406201790118</v>
+        <v>16.5330357942941</v>
       </c>
       <c r="L25">
-        <v>5.867060924580476</v>
+        <v>12.949173377665</v>
       </c>
       <c r="M25">
-        <v>12.21001895541786</v>
+        <v>11.45783320400038</v>
       </c>
       <c r="N25">
-        <v>7.088521416887211</v>
+        <v>5.863379997675183</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.49321146287385</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.362199730976959</v>
       </c>
       <c r="Q25">
-        <v>18.68875385534203</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>17.23440199995028</v>
       </c>
     </row>
   </sheetData>
